--- a/database/industries/ghand/ghesafha/income/quarterly/dollar.xlsx
+++ b/database/industries/ghand/ghesafha/income/quarterly/dollar.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghand\ghesafha\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC4CA0F-28EC-44DE-B823-F8872EAF4881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>قصفها-قنداصفهان‌</t>
@@ -36,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -51,22 +49,25 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1401-09-06 (4)</t>
-  </si>
-  <si>
-    <t>1400-10-29 (2)</t>
-  </si>
-  <si>
-    <t>1401-09-06 (5)</t>
+    <t>1401-11-01 (4)</t>
+  </si>
+  <si>
+    <t>1401-11-01 (7)</t>
   </si>
   <si>
     <t>1401-04-30</t>
   </si>
   <si>
     <t>1401-09-06 (2)</t>
+  </si>
+  <si>
+    <t>1401-11-01 (2)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -126,7 +127,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -307,7 +308,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -319,7 +320,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -366,6 +367,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -401,6 +419,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -552,21 +587,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="8" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -575,7 +610,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -586,7 +621,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -597,7 +632,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -606,7 +641,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -617,7 +652,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -628,7 +663,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -637,7 +672,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -658,7 +693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -679,7 +714,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -688,91 +723,91 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>10334</v>
+        <v>15760</v>
       </c>
       <c r="E11" s="13">
-        <v>15760</v>
+        <v>9617</v>
       </c>
       <c r="F11" s="13">
-        <v>9617</v>
+        <v>4525</v>
       </c>
       <c r="G11" s="13">
-        <v>4525</v>
+        <v>7226</v>
       </c>
       <c r="H11" s="13">
-        <v>7226</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+        <v>15900</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-8947</v>
+        <v>-12390</v>
       </c>
       <c r="E12" s="11">
-        <v>-12390</v>
+        <v>-9631</v>
       </c>
       <c r="F12" s="11">
-        <v>-9631</v>
+        <v>-3919</v>
       </c>
       <c r="G12" s="11">
-        <v>-3919</v>
+        <v>-6689</v>
       </c>
       <c r="H12" s="11">
-        <v>-6689</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-12702</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>1387</v>
+        <v>3370</v>
       </c>
       <c r="E13" s="15">
-        <v>3370</v>
+        <v>-14</v>
       </c>
       <c r="F13" s="15">
-        <v>-14</v>
+        <v>607</v>
       </c>
       <c r="G13" s="15">
-        <v>607</v>
+        <v>537</v>
       </c>
       <c r="H13" s="15">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-207</v>
+        <v>-107</v>
       </c>
       <c r="E14" s="11">
-        <v>-107</v>
+        <v>-234</v>
       </c>
       <c r="F14" s="11">
-        <v>-234</v>
+        <v>-159</v>
       </c>
       <c r="G14" s="11">
-        <v>-159</v>
+        <v>-254</v>
       </c>
       <c r="H14" s="11">
-        <v>-254</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-139</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
@@ -793,154 +828,154 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="E16" s="11">
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="F16" s="11">
-        <v>-11</v>
+        <v>-47</v>
       </c>
       <c r="G16" s="11">
-        <v>-47</v>
+        <v>40</v>
       </c>
       <c r="H16" s="11">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>1171</v>
+        <v>3254</v>
       </c>
       <c r="E17" s="15">
-        <v>3254</v>
+        <v>-260</v>
       </c>
       <c r="F17" s="15">
-        <v>-260</v>
+        <v>401</v>
       </c>
       <c r="G17" s="15">
-        <v>401</v>
+        <v>323</v>
       </c>
       <c r="H17" s="15">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-63</v>
+        <v>-18</v>
       </c>
       <c r="E18" s="11">
-        <v>-18</v>
+        <v>-3</v>
       </c>
       <c r="F18" s="11">
-        <v>-3</v>
+        <v>-11</v>
       </c>
       <c r="G18" s="11">
-        <v>-11</v>
+        <v>-39</v>
       </c>
       <c r="H18" s="11">
-        <v>-39</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>-276</v>
+        <v>12</v>
       </c>
       <c r="E19" s="13">
-        <v>12</v>
+        <v>320</v>
       </c>
       <c r="F19" s="13">
-        <v>320</v>
+        <v>34</v>
       </c>
       <c r="G19" s="13">
-        <v>34</v>
+        <v>359</v>
       </c>
       <c r="H19" s="13">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>832</v>
+        <v>3249</v>
       </c>
       <c r="E20" s="17">
-        <v>3249</v>
+        <v>58</v>
       </c>
       <c r="F20" s="17">
-        <v>58</v>
+        <v>424</v>
       </c>
       <c r="G20" s="17">
-        <v>424</v>
+        <v>643</v>
       </c>
       <c r="H20" s="17">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-284</v>
+        <v>-666</v>
       </c>
       <c r="E21" s="13">
-        <v>-666</v>
+        <v>365</v>
       </c>
       <c r="F21" s="13">
-        <v>365</v>
+        <v>-84</v>
       </c>
       <c r="G21" s="13">
-        <v>-84</v>
+        <v>-158</v>
       </c>
       <c r="H21" s="13">
-        <v>-158</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-611</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>549</v>
+        <v>2583</v>
       </c>
       <c r="E22" s="17">
-        <v>2583</v>
+        <v>422</v>
       </c>
       <c r="F22" s="17">
-        <v>422</v>
+        <v>340</v>
       </c>
       <c r="G22" s="17">
-        <v>340</v>
+        <v>485</v>
       </c>
       <c r="H22" s="17">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>29</v>
       </c>
@@ -961,28 +996,28 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>549</v>
+        <v>2583</v>
       </c>
       <c r="E24" s="17">
-        <v>2583</v>
+        <v>422</v>
       </c>
       <c r="F24" s="17">
-        <v>422</v>
+        <v>340</v>
       </c>
       <c r="G24" s="17">
-        <v>340</v>
+        <v>485</v>
       </c>
       <c r="H24" s="17">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2371</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>31</v>
       </c>
@@ -1003,28 +1038,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>743</v>
+        <v>685</v>
       </c>
       <c r="E26" s="11">
-        <v>685</v>
+        <v>707</v>
       </c>
       <c r="F26" s="11">
-        <v>707</v>
+        <v>664</v>
       </c>
       <c r="G26" s="11">
-        <v>664</v>
+        <v>626</v>
       </c>
       <c r="H26" s="11">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>33</v>
       </c>
@@ -1045,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>

--- a/database/industries/ghand/ghesafha/income/quarterly/dollar.xlsx
+++ b/database/industries/ghand/ghesafha/income/quarterly/dollar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghand\ghesafha\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghand\ghesafha\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC4CA0F-28EC-44DE-B823-F8872EAF4881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256D69AF-D841-4377-B905-7F0B872F6CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -53,6 +68,21 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1400-09-29 (4)</t>
+  </si>
+  <si>
+    <t>1400-10-29 (3)</t>
+  </si>
+  <si>
+    <t>1401-04-26 (9)</t>
+  </si>
+  <si>
+    <t>1401-04-30 (2)</t>
+  </si>
+  <si>
+    <t>1401-09-06 (4)</t>
   </si>
   <si>
     <t>1401-11-01 (4)</t>
@@ -588,20 +618,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H28"/>
+  <dimension ref="B1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -609,8 +641,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -620,8 +657,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -631,8 +673,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -640,8 +687,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -651,8 +703,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -662,8 +719,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -671,8 +733,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -692,29 +759,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -722,304 +819,519 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>4224</v>
+      </c>
+      <c r="E11" s="13">
+        <v>8357</v>
+      </c>
+      <c r="F11" s="13">
+        <v>4774</v>
+      </c>
+      <c r="G11" s="13">
+        <v>3530</v>
+      </c>
+      <c r="H11" s="13">
+        <v>10334</v>
+      </c>
+      <c r="I11" s="13">
         <v>15760</v>
       </c>
-      <c r="E11" s="13">
+      <c r="J11" s="13">
         <v>9617</v>
       </c>
-      <c r="F11" s="13">
+      <c r="K11" s="13">
         <v>4525</v>
       </c>
-      <c r="G11" s="13">
+      <c r="L11" s="13">
         <v>7226</v>
       </c>
-      <c r="H11" s="13">
+      <c r="M11" s="13">
         <v>15900</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-3663</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-6842</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-4143</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-2941</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-8947</v>
+      </c>
+      <c r="I12" s="11">
         <v>-12390</v>
       </c>
-      <c r="E12" s="11">
+      <c r="J12" s="11">
         <v>-9631</v>
       </c>
-      <c r="F12" s="11">
+      <c r="K12" s="11">
         <v>-3919</v>
       </c>
-      <c r="G12" s="11">
+      <c r="L12" s="11">
         <v>-6689</v>
       </c>
-      <c r="H12" s="11">
+      <c r="M12" s="11">
         <v>-12702</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>561</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1515</v>
+      </c>
+      <c r="F13" s="15">
+        <v>632</v>
+      </c>
+      <c r="G13" s="15">
+        <v>589</v>
+      </c>
+      <c r="H13" s="15">
+        <v>1387</v>
+      </c>
+      <c r="I13" s="15">
         <v>3370</v>
       </c>
-      <c r="E13" s="15">
+      <c r="J13" s="15">
         <v>-14</v>
       </c>
-      <c r="F13" s="15">
+      <c r="K13" s="15">
         <v>607</v>
       </c>
-      <c r="G13" s="15">
+      <c r="L13" s="15">
         <v>537</v>
       </c>
-      <c r="H13" s="15">
+      <c r="M13" s="15">
         <v>3198</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-114</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-60</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-167</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-125</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-207</v>
+      </c>
+      <c r="I14" s="11">
         <v>-107</v>
       </c>
-      <c r="E14" s="11">
+      <c r="J14" s="11">
         <v>-234</v>
       </c>
-      <c r="F14" s="11">
+      <c r="K14" s="11">
         <v>-159</v>
       </c>
-      <c r="G14" s="11">
+      <c r="L14" s="11">
         <v>-254</v>
       </c>
-      <c r="H14" s="11">
+      <c r="M14" s="11">
         <v>-139</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>148</v>
+      </c>
+      <c r="E16" s="11">
+        <v>-7</v>
+      </c>
+      <c r="F16" s="11">
+        <v>-120</v>
+      </c>
+      <c r="G16" s="11">
+        <v>-8</v>
+      </c>
+      <c r="H16" s="11">
+        <v>-10</v>
+      </c>
+      <c r="I16" s="11">
         <v>-9</v>
       </c>
-      <c r="E16" s="11">
+      <c r="J16" s="11">
         <v>-11</v>
       </c>
-      <c r="F16" s="11">
+      <c r="K16" s="11">
         <v>-47</v>
       </c>
-      <c r="G16" s="11">
+      <c r="L16" s="11">
         <v>40</v>
       </c>
-      <c r="H16" s="11">
+      <c r="M16" s="11">
         <v>-6</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>595</v>
+      </c>
+      <c r="E17" s="15">
+        <v>1449</v>
+      </c>
+      <c r="F17" s="15">
+        <v>345</v>
+      </c>
+      <c r="G17" s="15">
+        <v>456</v>
+      </c>
+      <c r="H17" s="15">
+        <v>1171</v>
+      </c>
+      <c r="I17" s="15">
         <v>3254</v>
       </c>
-      <c r="E17" s="15">
+      <c r="J17" s="15">
         <v>-260</v>
       </c>
-      <c r="F17" s="15">
+      <c r="K17" s="15">
         <v>401</v>
       </c>
-      <c r="G17" s="15">
+      <c r="L17" s="15">
         <v>323</v>
       </c>
-      <c r="H17" s="15">
+      <c r="M17" s="15">
         <v>3054</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
+        <v>-19</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-16</v>
+      </c>
+      <c r="F18" s="11">
+        <v>-30</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-47</v>
+      </c>
+      <c r="H18" s="11">
+        <v>-63</v>
+      </c>
+      <c r="I18" s="11">
         <v>-18</v>
       </c>
-      <c r="E18" s="11">
+      <c r="J18" s="11">
         <v>-3</v>
       </c>
-      <c r="F18" s="11">
+      <c r="K18" s="11">
         <v>-11</v>
       </c>
-      <c r="G18" s="11">
+      <c r="L18" s="11">
         <v>-39</v>
       </c>
-      <c r="H18" s="11">
+      <c r="M18" s="11">
         <v>-26</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>59</v>
+      </c>
+      <c r="E19" s="13">
+        <v>-3</v>
+      </c>
+      <c r="F19" s="13">
+        <v>249</v>
+      </c>
+      <c r="G19" s="13">
+        <v>3</v>
+      </c>
+      <c r="H19" s="13">
+        <v>-276</v>
+      </c>
+      <c r="I19" s="13">
         <v>12</v>
       </c>
-      <c r="E19" s="13">
+      <c r="J19" s="13">
         <v>320</v>
       </c>
-      <c r="F19" s="13">
+      <c r="K19" s="13">
         <v>34</v>
       </c>
-      <c r="G19" s="13">
+      <c r="L19" s="13">
         <v>359</v>
       </c>
-      <c r="H19" s="13">
+      <c r="M19" s="13">
         <v>-46</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>635</v>
+      </c>
+      <c r="E20" s="17">
+        <v>1430</v>
+      </c>
+      <c r="F20" s="17">
+        <v>565</v>
+      </c>
+      <c r="G20" s="17">
+        <v>413</v>
+      </c>
+      <c r="H20" s="17">
+        <v>832</v>
+      </c>
+      <c r="I20" s="17">
         <v>3249</v>
       </c>
-      <c r="E20" s="17">
+      <c r="J20" s="17">
         <v>58</v>
       </c>
-      <c r="F20" s="17">
+      <c r="K20" s="17">
         <v>424</v>
       </c>
-      <c r="G20" s="17">
+      <c r="L20" s="17">
         <v>643</v>
       </c>
-      <c r="H20" s="17">
+      <c r="M20" s="17">
         <v>2982</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
+        <v>-126</v>
+      </c>
+      <c r="E21" s="13">
+        <v>-292</v>
+      </c>
+      <c r="F21" s="13">
+        <v>-87</v>
+      </c>
+      <c r="G21" s="13">
+        <v>-82</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-284</v>
+      </c>
+      <c r="I21" s="13">
         <v>-666</v>
       </c>
-      <c r="E21" s="13">
+      <c r="J21" s="13">
         <v>365</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>-84</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>-158</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>-611</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>509</v>
+      </c>
+      <c r="E22" s="17">
+        <v>1137</v>
+      </c>
+      <c r="F22" s="17">
+        <v>478</v>
+      </c>
+      <c r="G22" s="17">
+        <v>331</v>
+      </c>
+      <c r="H22" s="17">
+        <v>549</v>
+      </c>
+      <c r="I22" s="17">
         <v>2583</v>
       </c>
-      <c r="E22" s="17">
+      <c r="J22" s="17">
         <v>422</v>
       </c>
-      <c r="F22" s="17">
+      <c r="K22" s="17">
         <v>340</v>
       </c>
-      <c r="G22" s="17">
+      <c r="L22" s="17">
         <v>485</v>
       </c>
-      <c r="H22" s="17">
+      <c r="M22" s="17">
         <v>2371</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>509</v>
+      </c>
+      <c r="E24" s="17">
+        <v>1137</v>
+      </c>
+      <c r="F24" s="17">
+        <v>478</v>
+      </c>
+      <c r="G24" s="17">
+        <v>331</v>
+      </c>
+      <c r="H24" s="17">
+        <v>549</v>
+      </c>
+      <c r="I24" s="17">
         <v>2583</v>
       </c>
-      <c r="E24" s="17">
+      <c r="J24" s="17">
         <v>422</v>
       </c>
-      <c r="F24" s="17">
+      <c r="K24" s="17">
         <v>340</v>
       </c>
-      <c r="G24" s="17">
+      <c r="L24" s="17">
         <v>485</v>
       </c>
-      <c r="H24" s="17">
+      <c r="M24" s="17">
         <v>2371</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
@@ -1037,31 +1349,61 @@
       <c r="H25" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="13">
+        <v>0</v>
+      </c>
+      <c r="J25" s="13">
+        <v>0</v>
+      </c>
+      <c r="K25" s="13">
+        <v>0</v>
+      </c>
+      <c r="L25" s="13">
+        <v>0</v>
+      </c>
+      <c r="M25" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
+        <v>884</v>
+      </c>
+      <c r="E26" s="11">
+        <v>718</v>
+      </c>
+      <c r="F26" s="11">
+        <v>798</v>
+      </c>
+      <c r="G26" s="11">
+        <v>836</v>
+      </c>
+      <c r="H26" s="11">
+        <v>743</v>
+      </c>
+      <c r="I26" s="11">
         <v>685</v>
       </c>
-      <c r="E26" s="11">
+      <c r="J26" s="11">
         <v>707</v>
       </c>
-      <c r="F26" s="11">
+      <c r="K26" s="11">
         <v>664</v>
       </c>
-      <c r="G26" s="11">
+      <c r="L26" s="11">
         <v>626</v>
       </c>
-      <c r="H26" s="11">
+      <c r="M26" s="11">
         <v>561</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
@@ -1079,8 +1421,23 @@
       <c r="H27" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="13">
+        <v>0</v>
+      </c>
+      <c r="J27" s="13">
+        <v>0</v>
+      </c>
+      <c r="K27" s="13">
+        <v>0</v>
+      </c>
+      <c r="L27" s="13">
+        <v>0</v>
+      </c>
+      <c r="M27" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1088,6 +1445,11 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/ghand/ghesafha/income/quarterly/dollar.xlsx
+++ b/database/industries/ghand/ghesafha/income/quarterly/dollar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghand\ghesafha\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghand\ghesafha\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256D69AF-D841-4377-B905-7F0B872F6CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F747F5-A4C3-4A6D-B270-C94479E2215F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-09-29 (4)</t>
-  </si>
-  <si>
     <t>1400-10-29 (3)</t>
   </si>
   <si>
@@ -88,7 +85,7 @@
     <t>1401-11-01 (4)</t>
   </si>
   <si>
-    <t>1401-11-01 (7)</t>
+    <t>1402-02-30 (8)</t>
   </si>
   <si>
     <t>1401-04-30</t>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>1401-11-01 (2)</t>
+  </si>
+  <si>
+    <t>1402-02-30</t>
   </si>
   <si>
     <t>فروش</t>
@@ -622,18 +622,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -647,7 +648,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -663,7 +664,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -679,7 +680,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -693,7 +694,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -709,7 +710,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -725,7 +726,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -739,7 +740,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -775,7 +776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -811,7 +812,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -825,151 +826,151 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>4224</v>
+        <v>8357</v>
       </c>
       <c r="E11" s="13">
-        <v>8357</v>
+        <v>4774</v>
       </c>
       <c r="F11" s="13">
-        <v>4774</v>
+        <v>3530</v>
       </c>
       <c r="G11" s="13">
-        <v>3530</v>
+        <v>10334</v>
       </c>
       <c r="H11" s="13">
-        <v>10334</v>
+        <v>15760</v>
       </c>
       <c r="I11" s="13">
-        <v>15760</v>
+        <v>9617</v>
       </c>
       <c r="J11" s="13">
-        <v>9617</v>
+        <v>4525</v>
       </c>
       <c r="K11" s="13">
-        <v>4525</v>
+        <v>7226</v>
       </c>
       <c r="L11" s="13">
-        <v>7226</v>
+        <v>15900</v>
       </c>
       <c r="M11" s="13">
-        <v>15900</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>12379</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-3663</v>
+        <v>-6842</v>
       </c>
       <c r="E12" s="11">
-        <v>-6842</v>
+        <v>-4143</v>
       </c>
       <c r="F12" s="11">
-        <v>-4143</v>
+        <v>-2941</v>
       </c>
       <c r="G12" s="11">
-        <v>-2941</v>
+        <v>-8947</v>
       </c>
       <c r="H12" s="11">
-        <v>-8947</v>
+        <v>-12390</v>
       </c>
       <c r="I12" s="11">
-        <v>-12390</v>
+        <v>-9631</v>
       </c>
       <c r="J12" s="11">
-        <v>-9631</v>
+        <v>-3919</v>
       </c>
       <c r="K12" s="11">
-        <v>-3919</v>
+        <v>-6689</v>
       </c>
       <c r="L12" s="11">
-        <v>-6689</v>
+        <v>-12702</v>
       </c>
       <c r="M12" s="11">
-        <v>-12702</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-12144</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>561</v>
+        <v>1515</v>
       </c>
       <c r="E13" s="15">
-        <v>1515</v>
+        <v>632</v>
       </c>
       <c r="F13" s="15">
-        <v>632</v>
+        <v>589</v>
       </c>
       <c r="G13" s="15">
-        <v>589</v>
+        <v>1387</v>
       </c>
       <c r="H13" s="15">
-        <v>1387</v>
+        <v>3370</v>
       </c>
       <c r="I13" s="15">
-        <v>3370</v>
+        <v>-14</v>
       </c>
       <c r="J13" s="15">
-        <v>-14</v>
+        <v>607</v>
       </c>
       <c r="K13" s="15">
-        <v>607</v>
+        <v>537</v>
       </c>
       <c r="L13" s="15">
-        <v>537</v>
+        <v>3198</v>
       </c>
       <c r="M13" s="15">
-        <v>3198</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-114</v>
+        <v>-60</v>
       </c>
       <c r="E14" s="11">
-        <v>-60</v>
+        <v>-167</v>
       </c>
       <c r="F14" s="11">
-        <v>-167</v>
+        <v>-125</v>
       </c>
       <c r="G14" s="11">
-        <v>-125</v>
+        <v>-207</v>
       </c>
       <c r="H14" s="11">
-        <v>-207</v>
+        <v>-107</v>
       </c>
       <c r="I14" s="11">
-        <v>-107</v>
+        <v>-234</v>
       </c>
       <c r="J14" s="11">
-        <v>-234</v>
+        <v>-159</v>
       </c>
       <c r="K14" s="11">
-        <v>-159</v>
+        <v>-254</v>
       </c>
       <c r="L14" s="11">
-        <v>-254</v>
+        <v>-139</v>
       </c>
       <c r="M14" s="11">
-        <v>-139</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-202</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1005,259 +1006,259 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>148</v>
+        <v>-7</v>
       </c>
       <c r="E16" s="11">
-        <v>-7</v>
+        <v>-120</v>
       </c>
       <c r="F16" s="11">
-        <v>-120</v>
+        <v>-8</v>
       </c>
       <c r="G16" s="11">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="H16" s="11">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="I16" s="11">
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="J16" s="11">
-        <v>-11</v>
+        <v>-47</v>
       </c>
       <c r="K16" s="11">
-        <v>-47</v>
+        <v>40</v>
       </c>
       <c r="L16" s="11">
-        <v>40</v>
+        <v>-6</v>
       </c>
       <c r="M16" s="11">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>595</v>
+        <v>1449</v>
       </c>
       <c r="E17" s="15">
-        <v>1449</v>
+        <v>345</v>
       </c>
       <c r="F17" s="15">
-        <v>345</v>
+        <v>456</v>
       </c>
       <c r="G17" s="15">
-        <v>456</v>
+        <v>1171</v>
       </c>
       <c r="H17" s="15">
-        <v>1171</v>
+        <v>3254</v>
       </c>
       <c r="I17" s="15">
-        <v>3254</v>
+        <v>-260</v>
       </c>
       <c r="J17" s="15">
-        <v>-260</v>
+        <v>401</v>
       </c>
       <c r="K17" s="15">
-        <v>401</v>
+        <v>323</v>
       </c>
       <c r="L17" s="15">
-        <v>323</v>
+        <v>3054</v>
       </c>
       <c r="M17" s="15">
-        <v>3054</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-19</v>
+        <v>-16</v>
       </c>
       <c r="E18" s="11">
-        <v>-16</v>
+        <v>-30</v>
       </c>
       <c r="F18" s="11">
-        <v>-30</v>
+        <v>-47</v>
       </c>
       <c r="G18" s="11">
-        <v>-47</v>
+        <v>-63</v>
       </c>
       <c r="H18" s="11">
-        <v>-63</v>
+        <v>-18</v>
       </c>
       <c r="I18" s="11">
-        <v>-18</v>
+        <v>-3</v>
       </c>
       <c r="J18" s="11">
-        <v>-3</v>
+        <v>-11</v>
       </c>
       <c r="K18" s="11">
-        <v>-11</v>
+        <v>-39</v>
       </c>
       <c r="L18" s="11">
-        <v>-39</v>
+        <v>-26</v>
       </c>
       <c r="M18" s="11">
-        <v>-26</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-23</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>59</v>
+        <v>-3</v>
       </c>
       <c r="E19" s="13">
-        <v>-3</v>
+        <v>249</v>
       </c>
       <c r="F19" s="13">
-        <v>249</v>
+        <v>3</v>
       </c>
       <c r="G19" s="13">
-        <v>3</v>
+        <v>-276</v>
       </c>
       <c r="H19" s="13">
-        <v>-276</v>
+        <v>12</v>
       </c>
       <c r="I19" s="13">
-        <v>12</v>
+        <v>320</v>
       </c>
       <c r="J19" s="13">
-        <v>320</v>
+        <v>34</v>
       </c>
       <c r="K19" s="13">
-        <v>34</v>
+        <v>359</v>
       </c>
       <c r="L19" s="13">
-        <v>359</v>
+        <v>-46</v>
       </c>
       <c r="M19" s="13">
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>635</v>
+        <v>1430</v>
       </c>
       <c r="E20" s="17">
-        <v>1430</v>
+        <v>565</v>
       </c>
       <c r="F20" s="17">
-        <v>565</v>
+        <v>413</v>
       </c>
       <c r="G20" s="17">
-        <v>413</v>
+        <v>832</v>
       </c>
       <c r="H20" s="17">
-        <v>832</v>
+        <v>3249</v>
       </c>
       <c r="I20" s="17">
-        <v>3249</v>
+        <v>58</v>
       </c>
       <c r="J20" s="17">
-        <v>58</v>
+        <v>424</v>
       </c>
       <c r="K20" s="17">
-        <v>424</v>
+        <v>643</v>
       </c>
       <c r="L20" s="17">
-        <v>643</v>
+        <v>2982</v>
       </c>
       <c r="M20" s="17">
-        <v>2982</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-126</v>
+        <v>-292</v>
       </c>
       <c r="E21" s="13">
-        <v>-292</v>
+        <v>-87</v>
       </c>
       <c r="F21" s="13">
-        <v>-87</v>
+        <v>-82</v>
       </c>
       <c r="G21" s="13">
-        <v>-82</v>
+        <v>-284</v>
       </c>
       <c r="H21" s="13">
-        <v>-284</v>
+        <v>-666</v>
       </c>
       <c r="I21" s="13">
-        <v>-666</v>
+        <v>365</v>
       </c>
       <c r="J21" s="13">
-        <v>365</v>
+        <v>-84</v>
       </c>
       <c r="K21" s="13">
-        <v>-84</v>
+        <v>-158</v>
       </c>
       <c r="L21" s="13">
-        <v>-158</v>
+        <v>-611</v>
       </c>
       <c r="M21" s="13">
-        <v>-611</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>509</v>
+        <v>1137</v>
       </c>
       <c r="E22" s="17">
-        <v>1137</v>
+        <v>478</v>
       </c>
       <c r="F22" s="17">
-        <v>478</v>
+        <v>331</v>
       </c>
       <c r="G22" s="17">
-        <v>331</v>
+        <v>549</v>
       </c>
       <c r="H22" s="17">
-        <v>549</v>
+        <v>2583</v>
       </c>
       <c r="I22" s="17">
-        <v>2583</v>
+        <v>422</v>
       </c>
       <c r="J22" s="17">
-        <v>422</v>
+        <v>340</v>
       </c>
       <c r="K22" s="17">
-        <v>340</v>
+        <v>485</v>
       </c>
       <c r="L22" s="17">
-        <v>485</v>
+        <v>2371</v>
       </c>
       <c r="M22" s="17">
-        <v>2371</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>39</v>
       </c>
@@ -1293,43 +1294,43 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>509</v>
+        <v>1137</v>
       </c>
       <c r="E24" s="17">
-        <v>1137</v>
+        <v>478</v>
       </c>
       <c r="F24" s="17">
-        <v>478</v>
+        <v>331</v>
       </c>
       <c r="G24" s="17">
-        <v>331</v>
+        <v>549</v>
       </c>
       <c r="H24" s="17">
-        <v>549</v>
+        <v>2583</v>
       </c>
       <c r="I24" s="17">
-        <v>2583</v>
+        <v>422</v>
       </c>
       <c r="J24" s="17">
-        <v>422</v>
+        <v>340</v>
       </c>
       <c r="K24" s="17">
-        <v>340</v>
+        <v>485</v>
       </c>
       <c r="L24" s="17">
-        <v>485</v>
+        <v>2371</v>
       </c>
       <c r="M24" s="17">
-        <v>2371</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>41</v>
       </c>
@@ -1365,43 +1366,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>884</v>
+        <v>718</v>
       </c>
       <c r="E26" s="11">
-        <v>718</v>
+        <v>798</v>
       </c>
       <c r="F26" s="11">
-        <v>798</v>
+        <v>836</v>
       </c>
       <c r="G26" s="11">
-        <v>836</v>
+        <v>743</v>
       </c>
       <c r="H26" s="11">
-        <v>743</v>
+        <v>685</v>
       </c>
       <c r="I26" s="11">
-        <v>685</v>
+        <v>707</v>
       </c>
       <c r="J26" s="11">
-        <v>707</v>
+        <v>664</v>
       </c>
       <c r="K26" s="11">
-        <v>664</v>
+        <v>626</v>
       </c>
       <c r="L26" s="11">
-        <v>626</v>
+        <v>561</v>
       </c>
       <c r="M26" s="11">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>43</v>
       </c>
@@ -1437,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
